--- a/finetuning/it_datasets/qa_dataset/qa_it_ksour essaf_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_ksour essaf_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -663,14 +668,48 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in ksour essaf and looking for a great cafe, check out Cafe Bachar located at 92PP+J8H. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe experiences to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-00:20, but closed on []. To get there, use these GPS coordinates: 35.4168972, 10.994572. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bachar/data=!4m7!3m6!1s0x13018a68082335a1:0x43924ea4047a6fca!8m2!3d35.3865536!4d11.0358453!16s%2Fg%2F11bzz2flmn!19sChIJoTUjCGiKARMRym96BKROkkM?authuser=0&amp;hl=fr&amp;rclk=1 or call Cafe Bachar (proprietaire).</t>
+          <t>Café Bachar is a highly-rated cafe located in Ksour Essaf (35.4168972, 10.994572). Open from 6:00 AM to 12:20 AM, it offers a cozy and convenient setting for enjoying a cup of coffee or a light meal. With its convenient location and positive customer reviews, Café Bachar is a popular choice for locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe in ksour essaf, known for its exceptional cafe experiences?</t>
+          <t>Day Plan:
+Morning: Exploring Cafe Hamama
+Mid-Morning: Trying local cuisine at 7 Days Food
+Midday: Visiting Louage station Ksour Essef
+Afternoon: Shopping at a local market
+Evening: Relaxing with a massage at a local spa
+Night: Enjoying scenic views at the top of a nearby hill</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Hamama**, located at (35.4093237, 10.9989095). Cafe Hamama is a cafe offering a wide variety of coffee, tea, and other beverages. It is located in the ksour essaf neighborhood of Tunis, Tunisia.
+7 Days Food is a fast food restaurant located in Ksour Essaf, Tunisia, with a rating of 4 out of 5. It is located at the coordinates (35.4168972, 10.994572), making it easy to access its services nearby.
+Louage station Ksour Essef is a public transport hub located in ksour essaf, Tunisia. It offers minibus taxi services, connecting the city to other destinations in the region. The station features two reviews, an overall rating of 3.5, and operates during regular business hours. Its coordinates are (35.41808, 10.99475), making it conveniently accessible within the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -776,14 +815,48 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in ksour essaf and looking for something fun to do, check out Cafe Hamama located at Avenue Bourgiba, Building 5, Ksour Essaf 5180. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot.
-It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.4093237, 10.9989095.
-For more details, visit their website at https://www.facebook.com/cafehamama/ or call them at 98 372 255.</t>
+          <t>Cafe Hamama is a top-rated cafe located at Avenue Bourgiba, Building 5, Ksour Essaf 5180. It is highly acclaimed for its exceptional service, earning a perfect 5.0 rating from nine reviews. Cafe Hamama is open daily from 7:00 AM to midnight, offering a cozy ambiance and a menu tailored to cafe enthusiasts. With its convenient location and welcoming atmosphere, Cafe Hamama is an ideal destination for locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you go in Ksour Essaf for a top-rated cafe experience featuring a wide selection of options?</t>
+          <t>Day Plan:
+Morning: Explore Ksour Essaf's cultural heritage at the local museum.
+Mid-Morning: Try local cuisine at the highly-rated Café Bachar for a cozy and convenient breakfast experience.
+Midday: Visit the Louage station Ksour Essef, a convenient transport hub that showcases the local lifestyle and provides connections to neighboring areas.
+Afternoon: Enjoy the scenic views from a nearby park or beach, offering a relaxing break amidst nature's beauty.
+Evening: Engage in outdoor activities like hiking or biking in the surrounding natural areas, taking advantage of the region's breathtaking landscapes.
+Night: Participate in a traditional cultural event or performance at a local venue, immersing yourself in the rich cultural traditions of Ksour Essaf.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Bachar is a highly-rated cafe located in Ksour Essaf (35.4168972, 10.994572). Open from 6:00 AM to 12:20 AM, it offers a cozy and convenient setting for enjoying a cup of coffee or a light meal. With its convenient location and positive customer reviews, Café Bachar is a popular choice for locals and visitors alike.
+7 Days Food is a fast food restaurant located in Ksour Essaf, Tunisia, with a rating of 4 out of 5. It is located at the coordinates (35.4168972, 10.994572), making it easy to access its services nearby.
+Louage station Ksour Essef is a public transport hub located in ksour essaf, Tunisia. It offers minibus taxi services, connecting the city to other destinations in the region. The station features two reviews, an overall rating of 3.5, and operates during regular business hours. Its coordinates are (35.41808, 10.99475), making it conveniently accessible within the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -885,12 +958,54 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in ksour essaf and looking for a top-rated Cafe, check out Storia cafe located at C 90, Ksour Essaf. With a rating of 4.2, this Cafe is a must-visit spot for Cafe lovers. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 35.4168972, 10.994572.</t>
+          <t>Storia Cafe is a 4.2-stars rated cafe located in ksour essaf. It is open 24 hours a day and offers a variety of services. Its coordinates are (35.4168972, 10.994572).</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>What is the name and GPS location of the top-rated Cafe in Ksour Essaf, open 24 hours a day?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore Cafe Hamama: Enjoy a cup of coffee and local delicacies at the charming Cafe Hamama, renowned for its cozy ambiance.
+**Mid-Morning:**
+* Visit Louage station Ksour Essef: Learn about the local transportation system and take a minibus taxi ride to explore the surrounding area.
+**Midday:**
+* Try local cuisine at 7 Days Food: Indulge in a delectable lunch featuring traditional Tunisian dishes at the highly-rated 7 Days Food restaurant.
+**Afternoon:**
+* Relax with a guided tour of nearby landmarks: Explore the historical and cultural significance of the neighborhood with a guided tour of iconic landmarks.
+**Evening:**
+* Enjoy scenic views at a nearby scenic spot: Witness the breathtaking sunset over the city skyline from a picturesque viewpoint.
+**Night:**
+* Engage in cultural immersion at a local market: Shop for souvenirs and experience the vibrant atmosphere of a traditional Tunisian market, offering a glimpse into the local way of life.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Hamama**, located at (35.4093237, 10.9989095). Cafe Hamama is a cafe offering a wide variety of coffee, tea, and other beverages. It is located in the ksour essaf neighborhood of Tunis, Tunisia.
+7 Days Food is a fast food restaurant located in Ksour Essaf, Tunisia, with a rating of 4 out of 5. It is located at the coordinates (35.4168972, 10.994572), making it easy to access its services nearby.
+Louage station Ksour Essef is a public transport hub located in ksour essaf, Tunisia. It offers minibus taxi services, connecting the city to other destinations in the region. The station features two reviews, an overall rating of 3.5, and operates during regular business hours. Its coordinates are (35.41808, 10.99475), making it conveniently accessible within the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -992,12 +1107,48 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in ksour essaf and looking for something fun to do, check out 7 Days Food located at 7 Days Food, 88 C82, Ksour Essaf. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.4168972, 10.994572.</t>
+          <t>7 Days Food is a fast food restaurant located in Ksour Essaf, Tunisia, with a rating of 4 out of 5. It is located at the coordinates (35.4168972, 10.994572), making it easy to access its services nearby.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where in ksour essaf can you find a top-rated destination offering Restauration rapide and receiving a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore Ksour Essaf, a charming town with historic architecture and vibrant street life.
+Mid-Morning: Visit the Louage station Ksour Essef, a transportation hub where you can interact with locals and learn about their daily lives.
+Midday: Savor the flavors of local cuisine at 7 Days Food, a restaurant offering a diverse menu of burgers, sandwiches, and pizzas.
+Afternoon: Experience the cultural immersion of Café Bachar, a cozy cafe with highly-rated coffee and a friendly atmosphere.
+Evening: Enjoy scenic views at Ksour Essaf's hilltop viewpoint, offering panoramic vistas of the town and surrounding landscapes.
+Night: Relax and unwind at a traditional hammam or spa, indulging in a soothing and rejuvenating experience.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Bachar is a highly-rated cafe located in Ksour Essaf (35.4168972, 10.994572). Open from 6:00 AM to 12:20 AM, it offers a cozy and convenient setting for enjoying a cup of coffee or a light meal. With its convenient location and positive customer reviews, Café Bachar is a popular choice for locals and visitors alike.
+7 Days Food is a fast food restaurant located in Ksour Essaf. It offers a wide variety of dishes, including burgers, sandwiches, and pizzas. The restaurant is open from 12:00 to 23:00 every day of the week. The coordinates of the restaurant are (35.4168972, 10.994572).
+Louage station Ksour Essef is a public transport hub located in ksour essaf, Tunisia. It offers minibus taxi services, connecting the city to other destinations in the region. The station features two reviews, an overall rating of 3.5, and operates during regular business hours. Its coordinates are (35.41808, 10.99475), making it conveniently accessible within the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1254,48 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in ksour essaf and looking for a great cafe to visit, check out Cafe Hamama located at Avenue Bourgiba, Building 5, Ksour Essaf 5180. This top-rated destination is perfect for cafe lovers and offers a range of options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on . To get there, use these GPS coordinates: 35.4093237, 10.9989095. For more details, visit their website at https://www.facebook.com/cafehamama/ or call them at 98 372 255.</t>
+          <t>**Cafe Hamama**, located at (35.4093237, 10.9989095). Cafe Hamama is a cafe offering a wide variety of coffee, tea, and other beverages. It is located in the ksour essaf neighborhood of Tunis, Tunisia.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where is the top-rated Cafe Hamama located, known for its exceptional offerings and popularity among cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the Louage station Ksour Essef and learn about the local public transportation system.
+Mid-Morning: Try local cuisine at 7 Days Food, a fast food restaurant with a 4-star rating.
+Midday: Visit the Storia Cafe, a highly-rated cafe open 24 hours a day, and relax with a drink or snack.
+Afternoon: Engage in outdoor activities like hiking or biking at a nearby park or nature area.
+Evening: Experience cultural immersion at a traditional Tunisian market or souk, exploring local crafts and products.
+Night: Enjoy scenic views at a nearby viewpoint or terrace, admiring the beauty of the city and its surroundings.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Storia Cafe is a 4.2-stars rated cafe located in ksour essaf. It is open 24 hours a day and offers a variety of services. Its coordinates are (35.4168972, 10.994572).
+7 Days Food is a fast food restaurant located in Ksour Essaf, Tunisia, with a rating of 4 out of 5. It is located at the coordinates (35.4168972, 10.994572), making it easy to access its services nearby.
+Louage station Ksour Essef is a public transport hub located in ksour essaf, Tunisia. It offers minibus taxi services, connecting the city to other destinations in the region. The station features two reviews, an overall rating of 3.5, and operates during regular business hours. Its coordinates are (35.41808, 10.99475), making it conveniently accessible within the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1210,12 +1397,48 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in Ksour Essaf and looking for a great cafe, check out Storia cafe located at C 90, Ksour Essaf. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime you like. To get there, use these GPS coordinates: 35.4168972, 10.994572. For more details, visit their website at https://www.google.com/maps/place/Storia+cafe/data=!4m7!3m6!1s0x130221aa61dd9e29:0x72f41834156f66df!8m2!3d35.4251586!4d10.9936723!16s%2Fg%2F11fp1lzcbl!19sChIJKZ7dYaohAhMR32ZvFTQY9HI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Storia cafe is a cafe located in Ksour Essaf, Tunisia. It offers a variety of coffee, tea, and pastries. The cafe is open 24 hours a day and has a rating of 4.2 out of 5 stars on Google. The cafe is located at Latitude: 35.4168972 and Longitude: 10.994572.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe open 24 hours a day with a variety of offerings in Ksour Essaf?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the Louage station Ksour Essef, a public transport hub that offers minibus taxi services.
+Mid-Morning: Head over to Storia Cafe, a 4.2-star rated cafe located nearby, for a delicious breakfast and coffee.
+Midday: Try local cuisine at 7 Days Food, a fast food restaurant located in Ksour Essaf that offers a wide variety of dishes, including burgers, sandwiches, and pizzas.
+Afternoon: Spend the afternoon relaxing with a massage at a local spa or hotel, enjoying the peaceful atmosphere and soothing ambiance.
+Evening: Take a guided tour of the nearby cultural site or museum to experience the rich history and traditions of the region.
+Night: End the day with a scenic boat ride along the coast, enjoying the breathtaking views and the tranquil atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Storia Cafe is a 4.2-stars rated cafe located in ksour essaf. It is open 24 hours a day and offers a variety of services. Its coordinates are (35.4168972, 10.994572).
+7 Days Food is a fast food restaurant located in Ksour Essaf. It offers a wide variety of dishes, including burgers, sandwiches, and pizzas. The restaurant is open from 12:00 to 23:00 every day of the week. The coordinates of the restaurant are (35.4168972, 10.994572).
+Louage station Ksour Essef is a public transport hub located in ksour essaf, Tunisia. It offers minibus taxi services, connecting the city to other destinations in the region. The station features two reviews, an overall rating of 3.5, and operates during regular business hours. Its coordinates are (35.41808, 10.99475), making it conveniently accessible within the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1317,12 +1540,48 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in ksour essaf and looking for a quick bite to eat, check out 7 Days Food located at 88 C82, Ksour Essaf. This top-rated destination is perfect for fast food lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-23:00. To get there, use these GPS coordinates: 35.4168972, 10.994572. For more details, visit their link at https://www.google.com/maps/place/7+Days+Food/data=!4m7!3m6!1s0x1302218358969b85:0xa79a1c246c075ccd!8m2!3d35.4174677!4d10.9984199!16s%2Fg%2F11ts443b85!19sChIJhZuWWIMhAhMRzVwHbCQcmqc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>7 Days Food is a fast food restaurant located in Ksour Essaf. It offers a wide variety of dishes, including burgers, sandwiches, and pizzas. The restaurant is open from 12:00 to 23:00 every day of the week. The coordinates of the restaurant are (35.4168972, 10.994572).</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated fast food restaurant with convenient hours, located at 88 C82, Ksour Essaf?</t>
+          <t>Day Plan:
+Morning: Exploring Storia Cafe (coffee and pastries)
+Mid-Morning: Trying local cuisine at 7 Days Food (fast food)
+Midday: Visiting Louage station Ksour Essef (public transport hub)
+Afternoon: Enjoying a guided tour of Ksour Essaf (historical site)
+Evening: Relaxing with a traditional Hammam experience at a local spa
+Night: Shopping at a traditional souk (market)</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Storia cafe is a cafe located in Ksour Essaf, Tunisia. It offers a variety of coffee, tea, and pastries. The cafe is open 24 hours a day and has a rating of 4.2 out of 5 stars on Google. The cafe is located at Latitude: 35.4168972 and Longitude: 10.994572.
+7 Days Food is a fast food restaurant located in Ksour Essaf, Tunisia, with a rating of 4 out of 5. It is located at the coordinates (35.4168972, 10.994572), making it easy to access its services nearby.
+Louage station Ksour Essef is a public transport hub located in ksour essaf, Tunisia. It offers minibus taxi services, connecting the city to other destinations in the region. The station features two reviews, an overall rating of 3.5, and operates during regular business hours. Its coordinates are (35.41808, 10.99475), making it conveniently accessible within the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1679,48 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in ksour essaf, be sure to visit Louage station Ksour Essef, a top-rated Service de taxi minibus option. Located at C292+5CW Louage station Ksour Essef, Ksour Essaf, this popular spot boasts a rating of 3.5. Their website and phone number are not available, but you can use the GPS coordinates (35.41808, 10.99475) to get there.</t>
+          <t>Louage station Ksour Essef is a public transport hub located in ksour essaf, Tunisia. It offers minibus taxi services, connecting the city to other destinations in the region. The station features two reviews, an overall rating of 3.5, and operates during regular business hours. Its coordinates are (35.41808, 10.99475), making it conveniently accessible within the city.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can one find the highly rated Louage station Ksour Essef with GPS coordinates of (35.41808, 10.99475)?</t>
+          <t>Day Plan:
+Morning: Visit Louage station Ksour Essef, explore the nearby area, and learn about transportation options in the region.
+Mid-Morning: Explore Storia cafe, indulge in a local coffee and pastry, and enjoy the ambiance of this popular cafe.
+Midday: Try local cuisine at 7 Days Food, savor the flavors of Tunisian fast food, and enjoy the convenient location.
+Afternoon: Explore the vibrant Ksour Essaf market, browse local crafts, and find unique souvenirs to remember your trip.
+Evening: Enjoy scenic views at a nearby park or beach, relax and unwind while admiring the beauty of the surroundings.
+Night: Relax with a traditional spa treatment at a local spa or hotel, rejuvenate and prepare for the next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Storia cafe is a cafe located in Ksour Essaf, Tunisia. It offers a variety of coffee, tea, and pastries. The cafe is open 24 hours a day and has a rating of 4.2 out of 5 stars on Google. The cafe is located at Latitude: 35.4168972 and Longitude: 10.994572.
+7 Days Food is a fast food restaurant located in Ksour Essaf, Tunisia, with a rating of 4 out of 5. It is located at the coordinates (35.4168972, 10.994572), making it easy to access its services nearby.
+Louage station Ksour Essef is a public transport hub located in ksour essaf, Tunisia. It offers minibus taxi services, connecting the city to other destinations in the region. The station features two reviews, an overall rating of 3.5, and operates during regular business hours. Its coordinates are (35.41808, 10.99475), making it conveniently accessible within the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
